--- a/dataset/covid/covid_USA.xlsx
+++ b/dataset/covid/covid_USA.xlsx
@@ -1,503 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Universidad\austral\2024\Analisis de Series Temporales\Respositorios\MCD-Series-Temporales\dataset\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ADE029-14B5-44BC-91CB-DA851A13C394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC177769-9372-48CB-961B-A88BEDD64480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="covid_USA" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">covid_USA!$A$1:$B$156</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>total_positive_tests</t>
   </si>
-  <si>
-    <t>2021-09-26</t>
-  </si>
-  <si>
-    <t>2021-10-03</t>
-  </si>
-  <si>
-    <t>2021-10-10</t>
-  </si>
-  <si>
-    <t>2021-10-17</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>2021-10-31</t>
-  </si>
-  <si>
-    <t>2021-11-07</t>
-  </si>
-  <si>
-    <t>2021-11-14</t>
-  </si>
-  <si>
-    <t>2021-11-21</t>
-  </si>
-  <si>
-    <t>2021-11-28</t>
-  </si>
-  <si>
-    <t>2021-12-05</t>
-  </si>
-  <si>
-    <t>2021-12-12</t>
-  </si>
-  <si>
-    <t>2021-12-19</t>
-  </si>
-  <si>
-    <t>2021-12-26</t>
-  </si>
-  <si>
-    <t>2022-01-02</t>
-  </si>
-  <si>
-    <t>2022-01-09</t>
-  </si>
-  <si>
-    <t>2022-01-16</t>
-  </si>
-  <si>
-    <t>2022-01-23</t>
-  </si>
-  <si>
-    <t>2022-01-30</t>
-  </si>
-  <si>
-    <t>2022-02-06</t>
-  </si>
-  <si>
-    <t>2022-02-13</t>
-  </si>
-  <si>
-    <t>2022-02-20</t>
-  </si>
-  <si>
-    <t>2022-02-27</t>
-  </si>
-  <si>
-    <t>2022-03-06</t>
-  </si>
-  <si>
-    <t>2022-03-13</t>
-  </si>
-  <si>
-    <t>2022-03-20</t>
-  </si>
-  <si>
-    <t>2022-03-27</t>
-  </si>
-  <si>
-    <t>2022-04-03</t>
-  </si>
-  <si>
-    <t>2022-04-10</t>
-  </si>
-  <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>2022-04-24</t>
-  </si>
-  <si>
-    <t>2022-05-01</t>
-  </si>
-  <si>
-    <t>2022-05-08</t>
-  </si>
-  <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
-    <t>2022-05-22</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>2022-06-05</t>
-  </si>
-  <si>
-    <t>2022-06-12</t>
-  </si>
-  <si>
-    <t>2022-06-19</t>
-  </si>
-  <si>
-    <t>2022-06-26</t>
-  </si>
-  <si>
-    <t>2022-07-03</t>
-  </si>
-  <si>
-    <t>2022-07-10</t>
-  </si>
-  <si>
-    <t>2022-07-17</t>
-  </si>
-  <si>
-    <t>2022-07-24</t>
-  </si>
-  <si>
-    <t>2022-07-31</t>
-  </si>
-  <si>
-    <t>2022-08-07</t>
-  </si>
-  <si>
-    <t>2022-08-14</t>
-  </si>
-  <si>
-    <t>2022-08-21</t>
-  </si>
-  <si>
-    <t>2022-08-28</t>
-  </si>
-  <si>
-    <t>2022-09-04</t>
-  </si>
-  <si>
-    <t>2022-09-11</t>
-  </si>
-  <si>
-    <t>2022-09-18</t>
-  </si>
-  <si>
-    <t>2022-09-25</t>
-  </si>
-  <si>
-    <t>2022-10-02</t>
-  </si>
-  <si>
-    <t>2022-10-09</t>
-  </si>
-  <si>
-    <t>2022-10-16</t>
-  </si>
-  <si>
-    <t>2022-10-23</t>
-  </si>
-  <si>
-    <t>2022-10-30</t>
-  </si>
-  <si>
-    <t>2022-11-06</t>
-  </si>
-  <si>
-    <t>2022-11-13</t>
-  </si>
-  <si>
-    <t>2022-11-20</t>
-  </si>
-  <si>
-    <t>2022-11-27</t>
-  </si>
-  <si>
-    <t>2022-12-04</t>
-  </si>
-  <si>
-    <t>2022-12-11</t>
-  </si>
-  <si>
-    <t>2022-12-18</t>
-  </si>
-  <si>
-    <t>2022-12-25</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023-01-08</t>
-  </si>
-  <si>
-    <t>2023-01-15</t>
-  </si>
-  <si>
-    <t>2023-01-22</t>
-  </si>
-  <si>
-    <t>2023-01-29</t>
-  </si>
-  <si>
-    <t>2023-02-05</t>
-  </si>
-  <si>
-    <t>2023-02-12</t>
-  </si>
-  <si>
-    <t>2023-02-19</t>
-  </si>
-  <si>
-    <t>2023-02-26</t>
-  </si>
-  <si>
-    <t>2023-03-05</t>
-  </si>
-  <si>
-    <t>2023-03-12</t>
-  </si>
-  <si>
-    <t>2023-03-19</t>
-  </si>
-  <si>
-    <t>2023-03-26</t>
-  </si>
-  <si>
-    <t>2023-04-02</t>
-  </si>
-  <si>
-    <t>2023-04-09</t>
-  </si>
-  <si>
-    <t>2023-04-16</t>
-  </si>
-  <si>
-    <t>2023-04-23</t>
-  </si>
-  <si>
-    <t>2023-04-30</t>
-  </si>
-  <si>
-    <t>2023-05-07</t>
-  </si>
-  <si>
-    <t>2023-05-14</t>
-  </si>
-  <si>
-    <t>2023-05-21</t>
-  </si>
-  <si>
-    <t>2023-05-28</t>
-  </si>
-  <si>
-    <t>2023-06-04</t>
-  </si>
-  <si>
-    <t>2023-06-11</t>
-  </si>
-  <si>
-    <t>2023-06-18</t>
-  </si>
-  <si>
-    <t>2023-06-25</t>
-  </si>
-  <si>
-    <t>2023-07-02</t>
-  </si>
-  <si>
-    <t>2023-07-09</t>
-  </si>
-  <si>
-    <t>2023-07-16</t>
-  </si>
-  <si>
-    <t>2023-07-23</t>
-  </si>
-  <si>
-    <t>2023-07-30</t>
-  </si>
-  <si>
-    <t>2023-08-06</t>
-  </si>
-  <si>
-    <t>2023-08-13</t>
-  </si>
-  <si>
-    <t>2023-08-20</t>
-  </si>
-  <si>
-    <t>2023-08-27</t>
-  </si>
-  <si>
-    <t>2023-09-03</t>
-  </si>
-  <si>
-    <t>2023-09-10</t>
-  </si>
-  <si>
-    <t>2023-09-17</t>
-  </si>
-  <si>
-    <t>2023-09-24</t>
-  </si>
-  <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
-    <t>2023-10-08</t>
-  </si>
-  <si>
-    <t>2023-10-15</t>
-  </si>
-  <si>
-    <t>2023-10-22</t>
-  </si>
-  <si>
-    <t>2023-10-29</t>
-  </si>
-  <si>
-    <t>2023-11-05</t>
-  </si>
-  <si>
-    <t>2023-11-12</t>
-  </si>
-  <si>
-    <t>2023-11-19</t>
-  </si>
-  <si>
-    <t>2023-11-26</t>
-  </si>
-  <si>
-    <t>2023-12-03</t>
-  </si>
-  <si>
-    <t>2023-12-10</t>
-  </si>
-  <si>
-    <t>2023-12-17</t>
-  </si>
-  <si>
-    <t>2023-12-24</t>
-  </si>
-  <si>
-    <t>2023-12-31</t>
-  </si>
-  <si>
-    <t>2024-01-07</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>2024-01-21</t>
-  </si>
-  <si>
-    <t>2024-01-28</t>
-  </si>
-  <si>
-    <t>2024-02-04</t>
-  </si>
-  <si>
-    <t>2024-02-11</t>
-  </si>
-  <si>
-    <t>2024-02-18</t>
-  </si>
-  <si>
-    <t>2024-02-25</t>
-  </si>
-  <si>
-    <t>2024-03-03</t>
-  </si>
-  <si>
-    <t>2024-03-10</t>
-  </si>
-  <si>
-    <t>2024-03-17</t>
-  </si>
-  <si>
-    <t>2024-03-24</t>
-  </si>
-  <si>
-    <t>2024-03-31</t>
-  </si>
-  <si>
-    <t>2024-04-07</t>
-  </si>
-  <si>
-    <t>2024-04-14</t>
-  </si>
-  <si>
-    <t>2024-04-21</t>
-  </si>
-  <si>
-    <t>2024-04-28</t>
-  </si>
-  <si>
-    <t>2024-05-05</t>
-  </si>
-  <si>
-    <t>2024-05-12</t>
-  </si>
-  <si>
-    <t>2024-05-19</t>
-  </si>
-  <si>
-    <t>2024-05-26</t>
-  </si>
-  <si>
-    <t>2024-06-02</t>
-  </si>
-  <si>
-    <t>2024-06-09</t>
-  </si>
-  <si>
-    <t>2024-06-16</t>
-  </si>
-  <si>
-    <t>2024-06-23</t>
-  </si>
-  <si>
-    <t>2024-06-30</t>
-  </si>
-  <si>
-    <t>2024-07-07</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>2024-07-28</t>
-  </si>
-  <si>
-    <t>2024-08-04</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>2024-08-18</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>2024-09-01</t>
-  </si>
-  <si>
-    <t>2024-09-08</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,20 +44,315 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -528,35 +361,207 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -569,7 +574,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,44 +584,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -643,14 +648,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -677,6 +700,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -688,1432 +729,1406 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>44465</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="1">
+        <v>44472</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="1">
+        <v>44479</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="1">
+        <v>44486</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="1">
+        <v>44493</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="1">
+        <v>44500</v>
       </c>
       <c r="B7">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="1">
+        <v>44507</v>
       </c>
       <c r="B8">
         <v>2700</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="1">
+        <v>44514</v>
       </c>
       <c r="B9">
         <v>2895</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" s="1">
+        <v>44521</v>
       </c>
       <c r="B10">
         <v>4436</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" s="1">
+        <v>44528</v>
       </c>
       <c r="B11">
         <v>6636</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" s="1">
+        <v>44535</v>
       </c>
       <c r="B12">
         <v>6591</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="1">
+        <v>44542</v>
       </c>
       <c r="B13">
         <v>11305</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" s="1">
+        <v>44549</v>
       </c>
       <c r="B14">
         <v>32905</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" s="1">
+        <v>44556</v>
       </c>
       <c r="B15">
         <v>65740</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16" s="1">
+        <v>44563</v>
       </c>
       <c r="B16">
         <v>90914</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
+      <c r="A17" s="1">
+        <v>44570</v>
       </c>
       <c r="B17">
         <v>90921</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="1">
+        <v>44577</v>
       </c>
       <c r="B18">
         <v>73792</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
+      <c r="A19" s="1">
+        <v>44584</v>
       </c>
       <c r="B19">
         <v>52504</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="1">
+        <v>44591</v>
       </c>
       <c r="B20">
         <v>30234</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
+      <c r="A21" s="1">
+        <v>44598</v>
       </c>
       <c r="B21">
         <v>16619</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
+      <c r="A22" s="1">
+        <v>44605</v>
       </c>
       <c r="B22">
         <v>13679</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
+      <c r="A23" s="1">
+        <v>44612</v>
       </c>
       <c r="B23">
         <v>6779</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
+      <c r="A24" s="1">
+        <v>44619</v>
       </c>
       <c r="B24">
         <v>5222</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
+      <c r="A25" s="1">
+        <v>44626</v>
       </c>
       <c r="B25">
         <v>4498</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
+      <c r="A26" s="1">
+        <v>44633</v>
       </c>
       <c r="B26">
         <v>4581</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
+      <c r="A27" s="1">
+        <v>44640</v>
       </c>
       <c r="B27">
         <v>5925</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
+      <c r="A28" s="1">
+        <v>44647</v>
       </c>
       <c r="B28">
         <v>7773</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
+      <c r="A29" s="1">
+        <v>44654</v>
       </c>
       <c r="B29">
         <v>10708</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
+      <c r="A30" s="1">
+        <v>44661</v>
       </c>
       <c r="B30">
         <v>14574</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
+      <c r="A31" s="1">
+        <v>44668</v>
       </c>
       <c r="B31">
         <v>17968</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
+      <c r="A32" s="1">
+        <v>44675</v>
       </c>
       <c r="B32">
         <v>22770</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
+      <c r="A33" s="1">
+        <v>44682</v>
       </c>
       <c r="B33">
         <v>34987</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
+      <c r="A34" s="1">
+        <v>44689</v>
       </c>
       <c r="B34">
         <v>41320</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
+      <c r="A35" s="1">
+        <v>44696</v>
       </c>
       <c r="B35">
         <v>43660</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
+      <c r="A36" s="1">
+        <v>44703</v>
       </c>
       <c r="B36">
         <v>43798</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
+      <c r="A37" s="1">
+        <v>44710</v>
       </c>
       <c r="B37">
         <v>42686</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
+      <c r="A38" s="1">
+        <v>44717</v>
       </c>
       <c r="B38">
         <v>38694</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
+      <c r="A39" s="1">
+        <v>44724</v>
       </c>
       <c r="B39">
         <v>37067</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
+      <c r="A40" s="1">
+        <v>44731</v>
       </c>
       <c r="B40">
         <v>39466</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
+      <c r="A41" s="1">
+        <v>44738</v>
       </c>
       <c r="B41">
         <v>42491</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
+      <c r="A42" s="1">
+        <v>44745</v>
       </c>
       <c r="B42">
         <v>45989</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
+      <c r="A43" s="1">
+        <v>44752</v>
       </c>
       <c r="B43">
         <v>45940</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
+      <c r="A44" s="1">
+        <v>44759</v>
       </c>
       <c r="B44">
         <v>43644</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
+      <c r="A45" s="1">
+        <v>44766</v>
       </c>
       <c r="B45">
         <v>40079</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
+      <c r="A46" s="1">
+        <v>44773</v>
       </c>
       <c r="B46">
         <v>34936</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
+      <c r="A47" s="1">
+        <v>44780</v>
       </c>
       <c r="B47">
         <v>29347</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
+      <c r="A48" s="1">
+        <v>44787</v>
       </c>
       <c r="B48">
         <v>26541</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
+      <c r="A49" s="1">
+        <v>44794</v>
       </c>
       <c r="B49">
         <v>24461</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
+      <c r="A50" s="1">
+        <v>44801</v>
       </c>
       <c r="B50">
         <v>21833</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
+      <c r="A51" s="1">
+        <v>44808</v>
       </c>
       <c r="B51">
         <v>18000</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
+      <c r="A52" s="1">
+        <v>44815</v>
       </c>
       <c r="B52">
         <v>16056</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
+      <c r="A53" s="1">
+        <v>44822</v>
       </c>
       <c r="B53">
         <v>14655</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
+      <c r="A54" s="1">
+        <v>44829</v>
       </c>
       <c r="B54">
         <v>13057</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
+      <c r="A55" s="1">
+        <v>44836</v>
       </c>
       <c r="B55">
         <v>11189</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
+      <c r="A56" s="1">
+        <v>44843</v>
       </c>
       <c r="B56">
         <v>10349</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
+      <c r="A57" s="1">
+        <v>44850</v>
       </c>
       <c r="B57">
         <v>10167</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
+      <c r="A58" s="1">
+        <v>44857</v>
       </c>
       <c r="B58">
         <v>10589</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
+      <c r="A59" s="1">
+        <v>44864</v>
       </c>
       <c r="B59">
         <v>11128</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
+      <c r="A60" s="1">
+        <v>44871</v>
       </c>
       <c r="B60">
         <v>10591</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
+      <c r="A61" s="1">
+        <v>44878</v>
       </c>
       <c r="B61">
         <v>10339</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
+      <c r="A62" s="1">
+        <v>44885</v>
       </c>
       <c r="B62">
         <v>8980</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>63</v>
+      <c r="A63" s="1">
+        <v>44892</v>
       </c>
       <c r="B63">
         <v>13011</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>64</v>
+      <c r="A64" s="1">
+        <v>44899</v>
       </c>
       <c r="B64">
         <v>24506</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
+      <c r="A65" s="1">
+        <v>44906</v>
       </c>
       <c r="B65">
         <v>16549</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
+      <c r="A66" s="1">
+        <v>44913</v>
       </c>
       <c r="B66">
         <v>16773</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>67</v>
+      <c r="A67" s="1">
+        <v>44920</v>
       </c>
       <c r="B67">
         <v>16808</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
+      <c r="A68" s="1">
+        <v>44927</v>
       </c>
       <c r="B68">
         <v>15859</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
+      <c r="A69" s="1">
+        <v>44934</v>
       </c>
       <c r="B69">
         <v>11209</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
+      <c r="A70" s="1">
+        <v>44941</v>
       </c>
       <c r="B70">
         <v>9540</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
+      <c r="A71" s="1">
+        <v>44948</v>
       </c>
       <c r="B71">
         <v>8676</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>72</v>
+      <c r="A72" s="1">
+        <v>44955</v>
       </c>
       <c r="B72">
         <v>8522</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>73</v>
+      <c r="A73" s="1">
+        <v>44962</v>
       </c>
       <c r="B73">
         <v>8496</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
+      <c r="A74" s="1">
+        <v>44969</v>
       </c>
       <c r="B74">
         <v>7890</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
+      <c r="A75" s="1">
+        <v>44976</v>
       </c>
       <c r="B75">
         <v>7170</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>76</v>
+      <c r="A76" s="1">
+        <v>44983</v>
       </c>
       <c r="B76">
         <v>6255</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>77</v>
+      <c r="A77" s="1">
+        <v>44990</v>
       </c>
       <c r="B77">
         <v>5173</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>78</v>
+      <c r="A78" s="1">
+        <v>44997</v>
       </c>
       <c r="B78">
         <v>5229</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>79</v>
+      <c r="A79" s="1">
+        <v>45004</v>
       </c>
       <c r="B79">
         <v>4970</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
+      <c r="A80" s="1">
+        <v>45011</v>
       </c>
       <c r="B80">
         <v>4375</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>81</v>
+      <c r="A81" s="1">
+        <v>45018</v>
       </c>
       <c r="B81">
         <v>3392</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>82</v>
+      <c r="A82" s="1">
+        <v>45025</v>
       </c>
       <c r="B82">
         <v>2915</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>83</v>
+      <c r="A83" s="1">
+        <v>45032</v>
       </c>
       <c r="B83">
         <v>2680</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>84</v>
+      <c r="A84" s="1">
+        <v>45039</v>
       </c>
       <c r="B84">
         <v>2646</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>85</v>
+      <c r="A85" s="1">
+        <v>45046</v>
       </c>
       <c r="B85">
         <v>2496</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>86</v>
+      <c r="A86" s="1">
+        <v>45053</v>
       </c>
       <c r="B86">
         <v>2426</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>87</v>
+      <c r="A87" s="1">
+        <v>45060</v>
       </c>
       <c r="B87">
         <v>2171</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>88</v>
+      <c r="A88" s="1">
+        <v>45067</v>
       </c>
       <c r="B88">
         <v>1821</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>89</v>
+      <c r="A89" s="1">
+        <v>45074</v>
       </c>
       <c r="B89">
         <v>1062</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>90</v>
+      <c r="A90" s="1">
+        <v>45081</v>
       </c>
       <c r="B90">
         <v>953</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>91</v>
+      <c r="A91" s="1">
+        <v>45088</v>
       </c>
       <c r="B91">
         <v>839</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>92</v>
+      <c r="A92" s="1">
+        <v>45095</v>
       </c>
       <c r="B92">
         <v>830</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>93</v>
+      <c r="A93" s="1">
+        <v>45102</v>
       </c>
       <c r="B93">
         <v>832</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>94</v>
+      <c r="A94" s="1">
+        <v>45109</v>
       </c>
       <c r="B94">
         <v>938</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>95</v>
+      <c r="A95" s="1">
+        <v>45116</v>
       </c>
       <c r="B95">
         <v>1004</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>96</v>
+      <c r="A96" s="1">
+        <v>45123</v>
       </c>
       <c r="B96">
         <v>1195</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>97</v>
+      <c r="A97" s="1">
+        <v>45130</v>
       </c>
       <c r="B97">
         <v>1522</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>98</v>
+      <c r="A98" s="1">
+        <v>45137</v>
       </c>
       <c r="B98">
         <v>1818</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>99</v>
+      <c r="A99" s="1">
+        <v>45144</v>
       </c>
       <c r="B99">
         <v>1925</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>100</v>
+      <c r="A100" s="1">
+        <v>45151</v>
       </c>
       <c r="B100">
         <v>2605</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>101</v>
+      <c r="A101" s="1">
+        <v>45158</v>
       </c>
       <c r="B101">
         <v>2870</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>102</v>
+      <c r="A102" s="1">
+        <v>45165</v>
       </c>
       <c r="B102">
         <v>2796</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>103</v>
+      <c r="A103" s="1">
+        <v>45172</v>
       </c>
       <c r="B103">
         <v>2775</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>104</v>
+      <c r="A104" s="1">
+        <v>45179</v>
       </c>
       <c r="B104">
         <v>2774</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>105</v>
+      <c r="A105" s="1">
+        <v>45186</v>
       </c>
       <c r="B105">
         <v>2366</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>106</v>
+      <c r="A106" s="1">
+        <v>45193</v>
       </c>
       <c r="B106">
         <v>2130</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>107</v>
+      <c r="A107" s="1">
+        <v>45200</v>
       </c>
       <c r="B107">
         <v>1720</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>108</v>
+      <c r="A108" s="1">
+        <v>45207</v>
       </c>
       <c r="B108">
         <v>1522</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>109</v>
+      <c r="A109" s="1">
+        <v>45214</v>
       </c>
       <c r="B109">
         <v>1576</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>110</v>
+      <c r="A110" s="1">
+        <v>45221</v>
       </c>
       <c r="B110">
         <v>1366</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>111</v>
+      <c r="A111" s="1">
+        <v>45228</v>
       </c>
       <c r="B111">
         <v>1369</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>112</v>
+      <c r="A112" s="1">
+        <v>45235</v>
       </c>
       <c r="B112">
         <v>1402</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>113</v>
+      <c r="A113" s="1">
+        <v>45242</v>
       </c>
       <c r="B113">
         <v>1498</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>114</v>
+      <c r="A114" s="1">
+        <v>45249</v>
       </c>
       <c r="B114">
         <v>1564</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>115</v>
+      <c r="A115" s="1">
+        <v>45256</v>
       </c>
       <c r="B115">
         <v>1918</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>116</v>
+      <c r="A116" s="1">
+        <v>45263</v>
       </c>
       <c r="B116">
         <v>1485</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>117</v>
+      <c r="A117" s="1">
+        <v>45270</v>
       </c>
       <c r="B117">
         <v>1109</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>118</v>
+      <c r="A118" s="1">
+        <v>45277</v>
       </c>
       <c r="B118">
         <v>827</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>119</v>
+      <c r="A119" s="1">
+        <v>45284</v>
       </c>
       <c r="B119">
         <v>910</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>120</v>
+      <c r="A120" s="1">
+        <v>45291</v>
       </c>
       <c r="B120">
         <v>863</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>121</v>
+      <c r="A121" s="1">
+        <v>45298</v>
       </c>
       <c r="B121">
         <v>772</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>122</v>
+      <c r="A122" s="1">
+        <v>45305</v>
       </c>
       <c r="B122">
         <v>585</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>123</v>
+      <c r="A123" s="1">
+        <v>45312</v>
       </c>
       <c r="B123">
         <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>124</v>
+      <c r="A124" s="1">
+        <v>45319</v>
       </c>
       <c r="B124">
         <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>125</v>
+      <c r="A125" s="1">
+        <v>45326</v>
       </c>
       <c r="B125">
         <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>126</v>
+      <c r="A126" s="1">
+        <v>45333</v>
       </c>
       <c r="B126">
         <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>127</v>
+      <c r="A127" s="1">
+        <v>45340</v>
       </c>
       <c r="B127">
         <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>128</v>
+      <c r="A128" s="1">
+        <v>45347</v>
       </c>
       <c r="B128">
         <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>129</v>
+      <c r="A129" s="1">
+        <v>45354</v>
       </c>
       <c r="B129">
         <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>130</v>
+      <c r="A130" s="1">
+        <v>45361</v>
       </c>
       <c r="B130">
         <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>131</v>
+      <c r="A131" s="1">
+        <v>45368</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>132</v>
+      <c r="A132" s="1">
+        <v>45375</v>
       </c>
       <c r="B132">
         <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>133</v>
+      <c r="A133" s="1">
+        <v>45382</v>
       </c>
       <c r="B133">
         <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>134</v>
+      <c r="A134" s="1">
+        <v>45389</v>
       </c>
       <c r="B134">
         <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>135</v>
+      <c r="A135" s="1">
+        <v>45396</v>
       </c>
       <c r="B135">
         <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>136</v>
+      <c r="A136" s="1">
+        <v>45403</v>
       </c>
       <c r="B136">
         <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>137</v>
+      <c r="A137" s="1">
+        <v>45410</v>
       </c>
       <c r="B137">
         <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>138</v>
+      <c r="A138" s="1">
+        <v>45417</v>
       </c>
       <c r="B138">
         <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>139</v>
+      <c r="A139" s="1">
+        <v>45424</v>
       </c>
       <c r="B139">
         <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>140</v>
+      <c r="A140" s="1">
+        <v>45431</v>
       </c>
       <c r="B140">
         <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>141</v>
+      <c r="A141" s="1">
+        <v>45438</v>
       </c>
       <c r="B141">
         <v>116</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>142</v>
+      <c r="A142" s="1">
+        <v>45445</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>143</v>
+      <c r="A143" s="1">
+        <v>45452</v>
       </c>
       <c r="B143">
         <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>144</v>
+      <c r="A144" s="1">
+        <v>45459</v>
       </c>
       <c r="B144">
         <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>145</v>
+      <c r="A145" s="1">
+        <v>45466</v>
       </c>
       <c r="B145">
         <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>146</v>
+      <c r="A146" s="1">
+        <v>45473</v>
       </c>
       <c r="B146">
         <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>147</v>
+      <c r="A147" s="1">
+        <v>45480</v>
       </c>
       <c r="B147">
         <v>363</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>148</v>
+      <c r="A148" s="1">
+        <v>45487</v>
       </c>
       <c r="B148">
         <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>149</v>
+      <c r="A149" s="1">
+        <v>45494</v>
       </c>
       <c r="B149">
         <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>150</v>
+      <c r="A150" s="1">
+        <v>45501</v>
       </c>
       <c r="B150">
         <v>490</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>151</v>
+      <c r="A151" s="1">
+        <v>45508</v>
       </c>
       <c r="B151">
         <v>479</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>152</v>
+      <c r="A152" s="1">
+        <v>45515</v>
       </c>
       <c r="B152">
         <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>153</v>
+      <c r="A153" s="1">
+        <v>45522</v>
       </c>
       <c r="B153">
         <v>465</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>154</v>
+      <c r="A154" s="1">
+        <v>45529</v>
       </c>
       <c r="B154">
         <v>464</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>155</v>
+      <c r="A155" s="1">
+        <v>45536</v>
       </c>
       <c r="B155">
         <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>156</v>
+      <c r="A156" s="1">
+        <v>45543</v>
       </c>
       <c r="B156">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <autoFilter ref="A1:B156"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>